--- a/files/spreadsheet.xlsx
+++ b/files/spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions and Contact Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -436,24 +436,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="281">
   <si>
     <t xml:space="preserve">submission_name</t>
   </si>
   <si>
-    <t xml:space="preserve">phs002249</t>
-  </si>
-  <si>
     <t xml:space="preserve">contact_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Kun Zhang</t>
-  </si>
-  <si>
     <t xml:space="preserve">inform_on_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kzhang@bioeng.ucsd.edu</t>
   </si>
   <si>
     <t xml:space="preserve">Instructions:</t>
@@ -1588,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1602,150 +1593,143 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1781,806 +1765,806 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B83" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="F83" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="G83" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B84" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="F84" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="G84" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2591,7 @@
   </sheetPr>
   <dimension ref="A1:AB401"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
     </sheetView>
   </sheetViews>
@@ -2646,88 +2630,88 @@
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="Q1" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,13 +3707,13 @@
       <c r="J198" s="10"/>
       <c r="K198" s="0"/>
       <c r="Z198" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA198" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AB198" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,13 +3786,13 @@
       <c r="J212" s="10"/>
       <c r="K212" s="0"/>
       <c r="Z212" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA212" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="AA212" s="0" t="s">
-        <v>240</v>
-      </c>
       <c r="AB212" s="0" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,13 +3800,13 @@
       <c r="J213" s="10"/>
       <c r="K213" s="0"/>
       <c r="Z213" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA213" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AB213" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,13 +4014,13 @@
       <c r="J254" s="10"/>
       <c r="K254" s="0"/>
       <c r="Z254" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA254" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AB254" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,13 +4073,13 @@
       <c r="J264" s="10"/>
       <c r="K264" s="0"/>
       <c r="Z264" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA264" s="0" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AB264" s="0" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,13 +4177,13 @@
       <c r="J283" s="10"/>
       <c r="K283" s="0"/>
       <c r="Z283" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA283" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AB283" s="0" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,13 +4231,13 @@
       <c r="J292" s="10"/>
       <c r="K292" s="0"/>
       <c r="Z292" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA292" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AB292" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,13 +4655,13 @@
       <c r="J375" s="10"/>
       <c r="K375" s="0"/>
       <c r="Z375" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA375" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AB375" s="0" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,13 +4669,13 @@
       <c r="J376" s="10"/>
       <c r="K376" s="0"/>
       <c r="Z376" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA376" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AB376" s="0" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,13 +4698,13 @@
       <c r="J380" s="10"/>
       <c r="K380" s="0"/>
       <c r="Z380" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA380" s="0" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AB380" s="0" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,13 +4712,13 @@
       <c r="J381" s="10"/>
       <c r="K381" s="0"/>
       <c r="Z381" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA381" s="0" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AB381" s="0" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,13 +4731,13 @@
       <c r="J383" s="10"/>
       <c r="K383" s="0"/>
       <c r="Z383" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA383" s="0" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AB383" s="0" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,13 +4750,13 @@
       <c r="J385" s="10"/>
       <c r="K385" s="0"/>
       <c r="Z385" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA385" s="0" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AB385" s="0" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,13 +4769,13 @@
       <c r="J387" s="10"/>
       <c r="K387" s="0"/>
       <c r="Z387" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA387" s="0" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AB387" s="0" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,13 +4783,13 @@
       <c r="J388" s="10"/>
       <c r="K388" s="0"/>
       <c r="Z388" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA388" s="0" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AB388" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,13 +4797,13 @@
       <c r="J389" s="10"/>
       <c r="K389" s="0"/>
       <c r="Z389" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA389" s="0" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AB389" s="0" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4827,13 +4811,13 @@
       <c r="J390" s="10"/>
       <c r="K390" s="0"/>
       <c r="Z390" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA390" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AB390" s="0" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,13 +4830,13 @@
       <c r="J392" s="10"/>
       <c r="K392" s="0"/>
       <c r="Z392" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA392" s="0" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AB392" s="0" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,13 +4849,13 @@
       <c r="J394" s="10"/>
       <c r="K394" s="0"/>
       <c r="Z394" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA394" s="0" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AB394" s="0" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,13 +4863,13 @@
       <c r="J395" s="10"/>
       <c r="K395" s="0"/>
       <c r="Z395" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA395" s="0" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AB395" s="0" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,13 +4877,13 @@
       <c r="J396" s="10"/>
       <c r="K396" s="0"/>
       <c r="Z396" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA396" s="0" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AB396" s="0" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,13 +4891,13 @@
       <c r="J397" s="10"/>
       <c r="K397" s="0"/>
       <c r="Z397" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA397" s="0" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AB397" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,13 +4910,13 @@
       <c r="J399" s="10"/>
       <c r="K399" s="0"/>
       <c r="Z399" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AA399" s="0" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AB399" s="0" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
